--- a/spanai-api/temp/template/模板.xlsx
+++ b/spanai-api/temp/template/模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joey_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alaric.ouyang/Documents/Nest/SPAN-AI/spanai-api/temp/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBBE397-E1C8-4BE1-A10D-FF5245A78320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F82AEA-03C1-474D-9C0F-E7EEA4743489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="员工信息" sheetId="3" r:id="rId1"/>
@@ -22,50 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>姓名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>电子邮箱</t>
   </si>
   <si>
-    <t>1级部门</t>
-  </si>
-  <si>
-    <t>1级部门领导</t>
-  </si>
-  <si>
-    <t>填写说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>（请务必使用正确的邮箱格式，填写信息请删除括号内内容）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（填写“是/yes/1” 代表是该层级部门领导，其余（包括空值）均为非领导）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 根据部门实际情况，可添加更多的部门，对于第x级部门，请同时添加【x级部门】及【x级部门领导】字段。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有一个事情，移动表格sheet位置、更改sheet名称是否会报错？如会，增加报错提示。
-对于前面出现的可能报错的情况也需要增加一下提示。（如部门层级字段缺失（填写了3级部门没填2级的）、字段顺序出错导致有些信息没法读取等等）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>待修改完成后，请程序员模拟数据提供一个填写案例。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 除却模板放置的基本信息外，可根据需求在表格中增加新的字段信息
-（如【出生日期】、【性别】等等）。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>初始密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,15 +43,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. sheet【员工信息】提供了最基础的信息填写模板，其中【手机号】、【初始密码】为选填项。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写：gpt-3.5或gpt-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个问题最大token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个聊天最大token数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个问题限制最大token数（不填或小于1为不限制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个聊天窗口限制token数（不填或小于1为不限制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的提问数量（不填或小于1为不限制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户过期时间（不填为不限制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录初始密码（默认1234）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -184,29 +197,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -247,27 +268,88 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -363,15 +445,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D02982A2-A3D0-4F59-9FD1-D8F531497F4E}" name="表3" displayName="表3" ref="A1:F2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F2" xr:uid="{D02982A2-A3D0-4F59-9FD1-D8F531497F4E}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2BDDE6E7-9F50-4B2A-8FD5-99AEBED7D9DE}" name="姓名" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A265E0C2-4849-4366-9154-61F16E3EACA8}" name="电子邮箱" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4DD742C9-C624-4AAE-AF7F-E139DF450415}" name="手机号" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{7CBD3535-91DE-4DCF-82E6-5AD2F4BC3A0C}" name="初始密码" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{47FC8F9E-1739-4E6D-BAAC-DB5F06E615FD}" name="1级部门" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{44FC7933-D0C9-4539-AE50-0EBAACC970A1}" name="1级部门领导" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D02982A2-A3D0-4F59-9FD1-D8F531497F4E}" name="表3" displayName="表3" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I2" xr:uid="{D02982A2-A3D0-4F59-9FD1-D8F531497F4E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2BDDE6E7-9F50-4B2A-8FD5-99AEBED7D9DE}" name="用户名" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A265E0C2-4849-4366-9154-61F16E3EACA8}" name="电子邮箱" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4DD742C9-C624-4AAE-AF7F-E139DF450415}" name="手机号" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7CBD3535-91DE-4DCF-82E6-5AD2F4BC3A0C}" name="初始密码" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9A0E1BF9-3FD0-A949-A591-5599A519AF85}" name="模型" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FFD4E456-968A-6D40-A895-B9BEB6F5A4CD}" name="单个问题最大token" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C6224794-EE20-4E45-985A-37CBCCD86BA7}" name="单个聊天最大token数" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{633C523E-9B20-E149-8878-7B2ED3746618}" name="问题数" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{0205582D-E0D2-CC40-AE8C-40767CFE32C2}" name="过期时间" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,53 +720,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79ED9DE0-9470-EF44-AEB2-AE2776E8EA02}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="67.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" spans="1:9">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -697,39 +818,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9952436C-70E6-4CCD-997F-8D84E9BFA2DF}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.53125" customWidth="1"/>
+    <col min="1" max="1" width="147.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6"/>
     </row>
-    <row r="11" spans="1:1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -742,18 +853,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
